--- a/Code/Results/Cases/Case_2_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.53348913047509</v>
+        <v>16.53256663092831</v>
       </c>
       <c r="C2">
-        <v>13.68593444304116</v>
+        <v>12.40119491845101</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.808525304821408</v>
+        <v>12.15952497240162</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>13.4845902327878</v>
+        <v>21.50471880673152</v>
       </c>
       <c r="H2">
-        <v>6.858240898895597</v>
+        <v>12.61806794061573</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.329558722610677</v>
+        <v>9.584698117903272</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.10205770748444</v>
+        <v>18.21342026214248</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.91064943000003</v>
+        <v>15.79218642281184</v>
       </c>
       <c r="C3">
-        <v>13.19433748606027</v>
+        <v>12.23470669892268</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.939110499232656</v>
+        <v>12.23097805617384</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>13.58716575031747</v>
+        <v>21.73691317286601</v>
       </c>
       <c r="H3">
-        <v>7.027195994456849</v>
+        <v>12.69499044762454</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.047552449058431</v>
+        <v>9.545289273672935</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.35392706042474</v>
+        <v>18.35892076913278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.85466942767589</v>
+        <v>15.31907331714712</v>
       </c>
       <c r="C4">
-        <v>12.88572796365281</v>
+        <v>12.13249652536483</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.025893606322374</v>
+        <v>12.27763739334332</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>13.6991312621057</v>
+        <v>21.89135161574668</v>
       </c>
       <c r="H4">
-        <v>7.137355784840668</v>
+        <v>12.74499673027374</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.871609401286903</v>
+        <v>9.522473272085916</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.52589153962524</v>
+        <v>18.45401640277892</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.40930647418655</v>
+        <v>15.12184286429239</v>
       </c>
       <c r="C5">
-        <v>12.75842658568997</v>
+        <v>12.09089186217784</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.062852890116843</v>
+        <v>12.29735240715722</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>13.75615372073375</v>
+        <v>21.95724575529599</v>
       </c>
       <c r="H5">
-        <v>7.183795815601835</v>
+        <v>12.76607308888132</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.799309605370825</v>
+        <v>9.513529384440588</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.60002399342035</v>
+        <v>18.49421398801358</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.33444387376239</v>
+        <v>15.08883232846119</v>
       </c>
       <c r="C6">
-        <v>12.73720029471843</v>
+        <v>12.08398753459363</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.069084434709919</v>
+        <v>12.30066841200212</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>13.76628317432415</v>
+        <v>21.96836541793327</v>
       </c>
       <c r="H6">
-        <v>7.191598942765247</v>
+        <v>12.76961499746216</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.787271077222851</v>
+        <v>9.512065810998498</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.61257039699557</v>
+        <v>18.5009759915482</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.84872410058054</v>
+        <v>15.31643102829101</v>
       </c>
       <c r="C7">
-        <v>12.88401714451894</v>
+        <v>12.13193518351069</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.026385679133744</v>
+        <v>12.27790043851238</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>13.69985538126684</v>
+        <v>21.89222833887992</v>
       </c>
       <c r="H7">
-        <v>7.137975900041366</v>
+        <v>12.74527814502867</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.870636636697185</v>
+        <v>9.52235121078261</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.52687526860352</v>
+        <v>18.45455267253423</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.98625079797969</v>
+        <v>16.28125057324773</v>
       </c>
       <c r="C8">
-        <v>13.51792759087109</v>
+        <v>12.34381265798646</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.852139017905406</v>
+        <v>12.18358368677508</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>13.50924782396272</v>
+        <v>21.5823002010233</v>
       </c>
       <c r="H8">
-        <v>6.915121969400396</v>
+        <v>12.64401502608481</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.232958683140124</v>
+        <v>9.570827299818637</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.18511955111647</v>
+        <v>18.26239229292524</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.70877716121301</v>
+        <v>18.01810676989871</v>
       </c>
       <c r="C9">
-        <v>14.70114308929219</v>
+        <v>12.7575387190361</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.5661219452892</v>
+        <v>12.02073326009176</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>13.56243690797399</v>
+        <v>21.0698871237667</v>
       </c>
       <c r="H9">
-        <v>6.532470432833945</v>
+        <v>12.46744025861367</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.917501915843646</v>
+        <v>9.676545847678506</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.66730281603874</v>
+        <v>17.93136621087561</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.16265604243396</v>
+        <v>19.19049582108378</v>
       </c>
       <c r="C10">
-        <v>15.52688100963246</v>
+        <v>13.0579580367112</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.394988063023627</v>
+        <v>11.9145515811695</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>13.90666149660719</v>
+        <v>20.75318691295129</v>
       </c>
       <c r="H10">
-        <v>6.290039330623998</v>
+        <v>12.35109469276015</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.400263500983909</v>
+        <v>9.76028742443853</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.402699860573808</v>
+        <v>17.71624544440904</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.2191031155604</v>
+        <v>19.69988415950561</v>
       </c>
       <c r="C11">
-        <v>15.89190457503896</v>
+        <v>13.19335157868471</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.326870324318257</v>
+        <v>11.86916892334246</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>14.13626301063317</v>
+        <v>20.62245359849346</v>
       </c>
       <c r="H11">
-        <v>6.189653216601132</v>
+        <v>12.30106691162463</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.614802594541588</v>
+        <v>9.799604119399627</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.31308632891146</v>
+        <v>17.62451826071283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.61064449474166</v>
+        <v>19.88923890326313</v>
       </c>
       <c r="C12">
-        <v>16.02852663930005</v>
+        <v>13.24439852879477</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.302593162025408</v>
+        <v>11.85240362106967</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>14.23403194601588</v>
+        <v>20.57489679741344</v>
       </c>
       <c r="H12">
-        <v>6.153211005976738</v>
+        <v>12.28253924752368</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.695268454321408</v>
+        <v>9.814659379873939</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.284075257207174</v>
+        <v>17.59066907304032</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52669613018972</v>
+        <v>19.84861677134857</v>
       </c>
       <c r="C13">
-        <v>15.99917510027024</v>
+        <v>13.23341524192802</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.307752200532597</v>
+        <v>11.85599563935397</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>14.21249093128618</v>
+        <v>20.58505181360481</v>
       </c>
       <c r="H13">
-        <v>6.160986996918031</v>
+        <v>12.28651097520416</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.677973814545856</v>
+        <v>9.811409681973178</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.290096143458966</v>
+        <v>17.59791963316367</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.25148551730371</v>
+        <v>19.71553392591729</v>
       </c>
       <c r="C14">
-        <v>15.90317711247416</v>
+        <v>13.19755595500465</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.324841900845464</v>
+        <v>11.8677812103457</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>14.14408834926388</v>
+        <v>20.61850182755039</v>
       </c>
       <c r="H14">
-        <v>6.186622668676989</v>
+        <v>12.29953427674994</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.621438341120655</v>
+        <v>9.800839431893438</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.310597952457012</v>
+        <v>17.6217156886885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.08180532502517</v>
+        <v>19.63355327566645</v>
       </c>
       <c r="C15">
-        <v>15.84416452339381</v>
+        <v>13.17556078302307</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.335511144534962</v>
+        <v>11.87505493357738</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>14.10360605387639</v>
+        <v>20.63924569588848</v>
       </c>
       <c r="H15">
-        <v>6.202534712720114</v>
+        <v>12.30756570125212</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.586706537322801</v>
+        <v>9.794386313790856</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.323812324181114</v>
+        <v>17.63640695554189</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.09241848825463</v>
+        <v>19.15671570469214</v>
       </c>
       <c r="C16">
-        <v>15.50280531990875</v>
+        <v>13.04908066526553</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.399645413226184</v>
+        <v>11.91757622076586</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>13.89315742017779</v>
+        <v>20.76200166056627</v>
       </c>
       <c r="H16">
-        <v>6.296811206496147</v>
+        <v>12.35442244666215</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.386136651698981</v>
+        <v>9.757741827579286</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.409217528052816</v>
+        <v>17.72236377436005</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.47020083079607</v>
+        <v>18.85798565753657</v>
       </c>
       <c r="C17">
-        <v>15.29061471693913</v>
+        <v>12.97113449171056</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.441563119353247</v>
+        <v>11.94440967522664</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>13.78304045741346</v>
+        <v>20.84074617233418</v>
       </c>
       <c r="H17">
-        <v>6.357281193474602</v>
+        <v>12.38390986524746</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.261758704386905</v>
+        <v>9.735568432657265</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.469837364190921</v>
+        <v>17.77666897888191</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.1066800257233</v>
+        <v>18.68391560902888</v>
       </c>
       <c r="C18">
-        <v>15.16757353987772</v>
+        <v>12.92618487541015</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.466581401144107</v>
+        <v>11.96011838798421</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>13.72656794632145</v>
+        <v>20.88729118859823</v>
       </c>
       <c r="H18">
-        <v>6.392983424156423</v>
+        <v>12.40114305744647</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.189744575851035</v>
+        <v>9.72293047270116</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.507567499412472</v>
+        <v>17.80848084368983</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.9826271129949</v>
+        <v>18.62459555744371</v>
       </c>
       <c r="C19">
-        <v>15.12574569652801</v>
+        <v>12.91094688514121</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.475204734363698</v>
+        <v>11.96548428197736</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>13.70861344028409</v>
+        <v>20.90326482830474</v>
       </c>
       <c r="H19">
-        <v>6.405225646628077</v>
+        <v>12.40702477672483</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.165281771473632</v>
+        <v>9.71867159557322</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.520819136610479</v>
+        <v>17.81935076463729</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.53701978537199</v>
+        <v>18.89001944317548</v>
       </c>
       <c r="C20">
-        <v>15.31330633819563</v>
+        <v>12.97944441110761</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.437006076504074</v>
+        <v>11.94152476377173</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>13.79404930541698</v>
+        <v>20.83223375087525</v>
       </c>
       <c r="H20">
-        <v>6.35074767566028</v>
+        <v>12.38074264475911</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.275048497352698</v>
+        <v>9.737916928719159</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.463084387595302</v>
+        <v>17.77082835628432</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.33255181225734</v>
+        <v>19.75472034117375</v>
       </c>
       <c r="C21">
-        <v>15.93141815256583</v>
+        <v>13.20809508762765</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.319780063921441</v>
+        <v>11.86430809821995</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>14.1638843601631</v>
+        <v>20.60862359713687</v>
       </c>
       <c r="H21">
-        <v>6.179048906295232</v>
+        <v>12.29569770622865</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.638065546466398</v>
+        <v>9.803939713399695</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.304438355740603</v>
+        <v>17.61470213357643</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.45646558639978</v>
+        <v>20.29918703101402</v>
       </c>
       <c r="C22">
-        <v>16.32601106704034</v>
+        <v>13.35620989007703</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.252073600141836</v>
+        <v>11.81629149923928</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>14.46871250587971</v>
+        <v>20.47385703626773</v>
       </c>
       <c r="H22">
-        <v>6.076079439801226</v>
+        <v>12.2425452109826</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.870783450743051</v>
+        <v>9.848057848776334</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.229697188606471</v>
+        <v>17.51783039848803</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.86111594849701</v>
+        <v>20.01051382292396</v>
       </c>
       <c r="C23">
-        <v>16.1162900951065</v>
+        <v>13.27729239072123</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.287353099711453</v>
+        <v>11.84169469033798</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>14.30018154374565</v>
+        <v>20.54473309217413</v>
       </c>
       <c r="H23">
-        <v>6.130135752840393</v>
+        <v>12.27069141001889</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.747005291562333</v>
+        <v>9.824425552117159</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.266769420135633</v>
+        <v>17.56905859614535</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.50682900733777</v>
+        <v>18.8755442066299</v>
       </c>
       <c r="C24">
-        <v>15.30305072051542</v>
+        <v>12.97568792113023</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.43906346118229</v>
+        <v>11.94282815446562</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>13.78905094186668</v>
+        <v>20.83607825134334</v>
       </c>
       <c r="H24">
-        <v>6.353698570792524</v>
+        <v>12.38217367143953</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.269041759373813</v>
+        <v>9.736854830905951</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.466128478687599</v>
+        <v>17.77346706086871</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.75146586588168</v>
+        <v>17.56588669230903</v>
       </c>
       <c r="C25">
-        <v>14.38825598206282</v>
+        <v>12.64606206455212</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.637045183079891</v>
+        <v>12.06242346371376</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>13.49726039629467</v>
+        <v>21.19813309852075</v>
       </c>
       <c r="H25">
-        <v>6.629643855457555</v>
+        <v>12.51285612967776</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.735584724572547</v>
+        <v>9.6468479601913</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.788834644008904</v>
+        <v>18.01599815863602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.53256663092831</v>
+        <v>24.53348913047508</v>
       </c>
       <c r="C2">
-        <v>12.40119491845101</v>
+        <v>13.68593444304122</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.15952497240162</v>
+        <v>6.808525304821468</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>21.50471880673152</v>
+        <v>13.48459023278781</v>
       </c>
       <c r="H2">
-        <v>12.61806794061573</v>
+        <v>6.858240898895604</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.584698117903272</v>
+        <v>7.329558722610652</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.21342026214248</v>
+        <v>10.10205770748448</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.79218642281184</v>
+        <v>22.91064943000002</v>
       </c>
       <c r="C3">
-        <v>12.23470669892268</v>
+        <v>13.19433748606041</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.23097805617384</v>
+        <v>6.939110499232708</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>21.73691317286601</v>
+        <v>13.5871657503174</v>
       </c>
       <c r="H3">
-        <v>12.69499044762454</v>
+        <v>7.02719599445684</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.545289273672935</v>
+        <v>7.047552449058483</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.35892076913278</v>
+        <v>10.35392706042472</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.31907331714712</v>
+        <v>21.85466942767588</v>
       </c>
       <c r="C4">
-        <v>12.13249652536483</v>
+        <v>12.88572796365284</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.27763739334332</v>
+        <v>7.025893606322373</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>21.89135161574668</v>
+        <v>13.69913126210554</v>
       </c>
       <c r="H4">
-        <v>12.74499673027374</v>
+        <v>7.137355784840668</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.522473272085916</v>
+        <v>6.871609401286865</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.45401640277892</v>
+        <v>10.52589153962513</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.12184286429239</v>
+        <v>21.40930647418648</v>
       </c>
       <c r="C5">
-        <v>12.09089186217784</v>
+        <v>12.75842658569015</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.29735240715722</v>
+        <v>7.062852890116845</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>21.95724575529599</v>
+        <v>13.75615372073393</v>
       </c>
       <c r="H5">
-        <v>12.76607308888132</v>
+        <v>7.183795815601957</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.513529384440588</v>
+        <v>6.799309605370772</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.49421398801358</v>
+        <v>10.60002399342049</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08883232846119</v>
+        <v>21.33444387376236</v>
       </c>
       <c r="C6">
-        <v>12.08398753459363</v>
+        <v>12.73720029471844</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.30066841200212</v>
+        <v>7.069084434709982</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>21.96836541793327</v>
+        <v>13.76628317432408</v>
       </c>
       <c r="H6">
-        <v>12.76961499746216</v>
+        <v>7.191598942765244</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.512065810998498</v>
+        <v>6.78727107722289</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.5009759915482</v>
+        <v>10.61257039699553</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.31643102829101</v>
+        <v>21.84872410058053</v>
       </c>
       <c r="C7">
-        <v>12.13193518351069</v>
+        <v>12.88401714451895</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.27790043851238</v>
+        <v>7.026385679133802</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>21.89222833887992</v>
+        <v>13.69985538126679</v>
       </c>
       <c r="H7">
-        <v>12.74527814502867</v>
+        <v>7.137975900041176</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.52235121078261</v>
+        <v>6.870636636697165</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.45455267253423</v>
+        <v>10.52687526860345</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.28125057324773</v>
+        <v>23.98625079797973</v>
       </c>
       <c r="C8">
-        <v>12.34381265798646</v>
+        <v>13.5179275908712</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.18358368677508</v>
+        <v>6.852139017905452</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>21.5823002010233</v>
+        <v>13.50924782396265</v>
       </c>
       <c r="H8">
-        <v>12.64401502608481</v>
+        <v>6.91512196940051</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.570827299818637</v>
+        <v>7.232958683140096</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.26239229292524</v>
+        <v>10.18511955111645</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.01810676989871</v>
+        <v>27.70877716121299</v>
       </c>
       <c r="C9">
-        <v>12.7575387190361</v>
+        <v>14.70114308929215</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.02073326009176</v>
+        <v>6.566121945289201</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>21.0698871237667</v>
+        <v>13.56243690797405</v>
       </c>
       <c r="H9">
-        <v>12.46744025861367</v>
+        <v>6.532470432833939</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.676545847678506</v>
+        <v>7.917501915843632</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.93136621087561</v>
+        <v>9.667302816038786</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.19049582108378</v>
+        <v>30.16265604243391</v>
       </c>
       <c r="C10">
-        <v>13.0579580367112</v>
+        <v>15.5268810096325</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.9145515811695</v>
+        <v>6.394988063023681</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>20.75318691295129</v>
+        <v>13.90666149660723</v>
       </c>
       <c r="H10">
-        <v>12.35109469276015</v>
+        <v>6.290039330624059</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.76028742443853</v>
+        <v>8.400263500983908</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.71624544440904</v>
+        <v>9.402699860573902</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.69988415950561</v>
+        <v>31.21910311556045</v>
       </c>
       <c r="C11">
-        <v>13.19335157868471</v>
+        <v>15.89190457503896</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.86916892334246</v>
+        <v>6.326870324318308</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>20.62245359849346</v>
+        <v>14.13626301063312</v>
       </c>
       <c r="H11">
-        <v>12.30106691162463</v>
+        <v>6.18965321660103</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.799604119399627</v>
+        <v>8.614802594541601</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.62451826071283</v>
+        <v>9.313086328911343</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.88923890326313</v>
+        <v>31.61064449474163</v>
       </c>
       <c r="C12">
-        <v>13.24439852879477</v>
+        <v>16.02852663929999</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.85240362106967</v>
+        <v>6.302593162025409</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>20.57489679741344</v>
+        <v>14.23403194601592</v>
       </c>
       <c r="H12">
-        <v>12.28253924752368</v>
+        <v>6.153211005976733</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.814659379873939</v>
+        <v>8.695268454321424</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.59066907304032</v>
+        <v>9.284075257207224</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.84861677134857</v>
+        <v>31.52669613018969</v>
       </c>
       <c r="C13">
-        <v>13.23341524192802</v>
+        <v>15.9991751002703</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.85599563935397</v>
+        <v>6.307752200532504</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>20.58505181360481</v>
+        <v>14.21249093128628</v>
       </c>
       <c r="H13">
-        <v>12.28651097520416</v>
+        <v>6.160986996917991</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.811409681973178</v>
+        <v>8.677973814545807</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.59791963316367</v>
+        <v>9.290096143458902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.71553392591729</v>
+        <v>31.25148551730368</v>
       </c>
       <c r="C14">
-        <v>13.19755595500465</v>
+        <v>15.90317711247422</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.8677812103457</v>
+        <v>6.324841900845516</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>20.61850182755039</v>
+        <v>14.14408834926386</v>
       </c>
       <c r="H14">
-        <v>12.29953427674994</v>
+        <v>6.186622668676877</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.800839431893438</v>
+        <v>8.621438341120687</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.6217156886885</v>
+        <v>9.310597952456993</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.63355327566645</v>
+        <v>31.08180532502514</v>
       </c>
       <c r="C15">
-        <v>13.17556078302307</v>
+        <v>15.84416452339376</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.87505493357738</v>
+        <v>6.335511144535007</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>20.63924569588848</v>
+        <v>14.10360605387637</v>
       </c>
       <c r="H15">
-        <v>12.30756570125212</v>
+        <v>6.20253471272011</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.794386313790856</v>
+        <v>8.586706537322822</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.63640695554189</v>
+        <v>9.323812324181072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.15671570469214</v>
+        <v>30.09241848825458</v>
       </c>
       <c r="C16">
-        <v>13.04908066526553</v>
+        <v>15.5028053199088</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.91757622076586</v>
+        <v>6.399645413226139</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>20.76200166056627</v>
+        <v>13.89315742017779</v>
       </c>
       <c r="H16">
-        <v>12.35442244666215</v>
+        <v>6.296811206496095</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.757741827579286</v>
+        <v>8.386136651698948</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.72236377436005</v>
+        <v>9.409217528052771</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.85798565753657</v>
+        <v>29.4702008307961</v>
       </c>
       <c r="C17">
-        <v>12.97113449171056</v>
+        <v>15.29061471693914</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.94440967522664</v>
+        <v>6.441563119353185</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>20.84074617233418</v>
+        <v>13.78304045741344</v>
       </c>
       <c r="H17">
-        <v>12.38390986524746</v>
+        <v>6.357281193474599</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.735568432657265</v>
+        <v>8.261758704386885</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.77666897888191</v>
+        <v>9.469837364190916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.68391560902888</v>
+        <v>29.10668002572331</v>
       </c>
       <c r="C18">
-        <v>12.92618487541015</v>
+        <v>15.1675735398777</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.96011838798421</v>
+        <v>6.466581401144168</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>20.88729118859823</v>
+        <v>13.7265679463215</v>
       </c>
       <c r="H18">
-        <v>12.40114305744647</v>
+        <v>6.392983424156427</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.72293047270116</v>
+        <v>8.189744575851046</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.80848084368983</v>
+        <v>9.50756749941249</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.62459555744371</v>
+        <v>28.98262711299487</v>
       </c>
       <c r="C19">
-        <v>12.91094688514121</v>
+        <v>15.12574569652792</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.96548428197736</v>
+        <v>6.475204734363651</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>20.90326482830474</v>
+        <v>13.70861344028405</v>
       </c>
       <c r="H19">
-        <v>12.40702477672483</v>
+        <v>6.405225646628189</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.71867159557322</v>
+        <v>8.165281771473632</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.81935076463729</v>
+        <v>9.520819136610509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.89001944317548</v>
+        <v>29.53701978537204</v>
       </c>
       <c r="C20">
-        <v>12.97944441110761</v>
+        <v>15.31330633819561</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.94152476377173</v>
+        <v>6.437006076504026</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>20.83223375087525</v>
+        <v>13.79404930541689</v>
       </c>
       <c r="H20">
-        <v>12.38074264475911</v>
+        <v>6.350747675660218</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.737916928719159</v>
+        <v>8.275048497352671</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.77082835628432</v>
+        <v>9.463084387595195</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.75472034117375</v>
+        <v>31.33255181225731</v>
       </c>
       <c r="C21">
-        <v>13.20809508762765</v>
+        <v>15.93141815256587</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.86430809821995</v>
+        <v>6.319780063921443</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>20.60862359713687</v>
+        <v>14.16388436016324</v>
       </c>
       <c r="H21">
-        <v>12.29569770622865</v>
+        <v>6.179048906295245</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.803939713399695</v>
+        <v>8.638065546466388</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.61470213357643</v>
+        <v>9.304438355740679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.29918703101402</v>
+        <v>32.45646558639977</v>
       </c>
       <c r="C22">
-        <v>13.35620989007703</v>
+        <v>16.32601106704034</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.81629149923928</v>
+        <v>6.252073600141935</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>20.47385703626773</v>
+        <v>14.46871250587974</v>
       </c>
       <c r="H22">
-        <v>12.2425452109826</v>
+        <v>6.076079439801216</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.848057848776334</v>
+        <v>8.870783450743074</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.51783039848803</v>
+        <v>9.229697188606492</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.01051382292396</v>
+        <v>31.86111594849696</v>
       </c>
       <c r="C23">
-        <v>13.27729239072123</v>
+        <v>16.11629009510634</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.84169469033798</v>
+        <v>6.287353099711344</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>20.54473309217413</v>
+        <v>14.30018154374573</v>
       </c>
       <c r="H23">
-        <v>12.27069141001889</v>
+        <v>6.130135752840503</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.824425552117159</v>
+        <v>8.747005291562322</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.56905859614535</v>
+        <v>9.266769420135804</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.8755442066299</v>
+        <v>29.50682900733779</v>
       </c>
       <c r="C24">
-        <v>12.97568792113023</v>
+        <v>15.3030507205154</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.94282815446562</v>
+        <v>6.439063461182176</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>20.83607825134334</v>
+        <v>13.78905094186665</v>
       </c>
       <c r="H24">
-        <v>12.38217367143953</v>
+        <v>6.353698570792409</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.736854830905951</v>
+        <v>8.26904175937382</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.77346706086871</v>
+        <v>9.466128478687539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.56588669230903</v>
+        <v>26.7514658658817</v>
       </c>
       <c r="C25">
-        <v>12.64606206455212</v>
+        <v>14.38825598206297</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.06242346371376</v>
+        <v>6.637045183079946</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>21.19813309852075</v>
+        <v>13.49726039629467</v>
       </c>
       <c r="H25">
-        <v>12.51285612967776</v>
+        <v>6.629643855457503</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.6468479601913</v>
+        <v>7.735584724572534</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.01599815863602</v>
+        <v>9.788834644008833</v>
       </c>
     </row>
   </sheetData>
